--- a/libs/excelData/craneSpecTable/L_1150_6.1.xlsx
+++ b/libs/excelData/craneSpecTable/L_1150_6.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\craneSpecTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="16560" tabRatio="850" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="16560" tabRatio="850" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="T_46.8t_t_186_00001_00_002" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1434,52 +1431,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2841,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3523,49 +3520,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4658,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5512,61 +5509,61 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7134,8 +7131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7859,52 +7856,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9298,8 +9295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10281,70 +10278,70 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -12276,8 +12273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13001,52 +12998,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14466,8 +14463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15320,61 +15317,61 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16729,8 +16726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17454,52 +17451,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -18263,8 +18260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19246,70 +19243,70 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -20957,8 +20954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21682,52 +21679,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -22467,8 +22464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23579,79 +23576,79 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -26080,8 +26077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26762,49 +26759,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -28106,8 +28103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29089,70 +29086,70 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -31270,8 +31267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32253,70 +32250,70 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -34432,8 +34429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35157,52 +35154,52 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -36734,8 +36731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36795,46 +36792,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -36842,46 +36839,46 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -37138,46 +37135,46 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -37416,49 +37413,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -38776,6 +38773,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38784,7 +38782,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38844,46 +38842,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -38891,46 +38889,46 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -39187,46 +39185,46 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
@@ -39465,49 +39463,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -40543,8 +40541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41225,49 +41223,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -42513,8 +42511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43195,49 +43193,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -44516,8 +44514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45198,49 +45196,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -46372,8 +46370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47054,49 +47052,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -48286,8 +48284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48968,49 +48966,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -50074,8 +50072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -50756,49 +50754,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -51901,8 +51899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52583,49 +52581,49 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <v>0</v>
       </c>
     </row>
